--- a/src/front/doc/FormatoCargaBase.xlsx
+++ b/src/front/doc/FormatoCargaBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminLocal\Documents\Github\proyectServiData\src\front\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMINL~1\AppData\Local\Temp\Mxt244\mx86_64b\RemoteFiles\526314_3_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1112F67F-A059-446D-91CF-DDDEE9516671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E979BF7B-69E5-467D-BFA6-AECB1DE3C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2028" windowWidth="17124" windowHeight="10932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Razón Social</t>
   </si>
@@ -34,12 +34,6 @@
     <t>RIF</t>
   </si>
   <si>
-    <t>Fecha de Creación</t>
-  </si>
-  <si>
-    <t>Fecha de Actualización</t>
-  </si>
-  <si>
     <t>Contrato</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>Estado del Servicio</t>
-  </si>
-  <si>
     <t>Dominio</t>
   </si>
   <si>
@@ -131,6 +122,9 @@
   </si>
   <si>
     <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Pública</t>
   </si>
 </sst>
 </file>
@@ -514,15 +508,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AJ1"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E12:E13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -533,110 +527,111 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>33</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:AJ1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="C1:AG1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{DFC412EB-F4DC-42C1-A9E0-0DADDDA89D08}">
+      <formula1>"Pública,Privada"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F1:AJ1" numberStoredAsText="1"/>
+    <ignoredError sqref="F1:L1 M1:AG1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>